--- a/form.xlsx
+++ b/form.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Asım Atıcı</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>oruc@gmail.com</t>
+  </si>
+  <si>
+    <t>asdas</t>
   </si>
 </sst>
 </file>
@@ -359,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -370,7 +373,7 @@
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +384,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -390,6 +393,11 @@
       </c>
       <c r="C2">
         <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
